--- a/public/downloads/Template Files/Journal Entry List Result.xlsx
+++ b/public/downloads/Template Files/Journal Entry List Result.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF9A5E1-494B-4A95-A984-C605DED68688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Entry List Result" sheetId="3" r:id="rId1"/>
@@ -24,15 +23,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted" description="Connection to the 'TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted" description="Connection to the 'TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="193">
   <si>
     <t>T.GlobalRef</t>
   </si>
@@ -563,9 +562,6 @@
     <t>Account Name</t>
   </si>
   <si>
-    <t>Department Name</t>
-  </si>
-  <si>
     <t>Entry No</t>
   </si>
   <si>
@@ -578,26 +574,53 @@
     <t>Tax Amount</t>
   </si>
   <si>
-    <t>19/12/2022</t>
-  </si>
-  <si>
-    <t>14/12/2022</t>
-  </si>
-  <si>
-    <t>27/04/2022</t>
-  </si>
-  <si>
-    <t>25/10/2021</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>2022-12-19 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2022-12-09 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2022-10-12 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2022-05-09 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2022-04-27 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2021-11-10 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2021-11-02 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>2021-10-25 00:00:00 Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +636,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -638,19 +668,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +704,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -680,7 +717,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -694,7 +730,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -708,7 +743,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -722,7 +756,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -736,7 +769,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -750,7 +782,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -764,7 +795,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -778,7 +808,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -792,7 +821,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -806,7 +834,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -820,7 +847,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -834,7 +860,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -848,7 +873,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -862,7 +886,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -876,7 +899,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -890,7 +912,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -904,7 +925,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -918,7 +938,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -932,7 +951,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -946,7 +964,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -960,7 +977,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -974,7 +990,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -988,7 +1003,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1002,7 +1016,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1016,7 +1029,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1030,7 +1042,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1044,7 +1055,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1058,7 +1068,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1072,7 +1081,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1086,7 +1094,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1100,7 +1107,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1114,7 +1120,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1128,7 +1133,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1142,7 +1146,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1156,7 +1159,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1170,7 +1172,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1184,7 +1185,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1198,7 +1198,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1212,7 +1211,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1226,7 +1224,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1240,7 +1237,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1254,7 +1250,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1268,7 +1263,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1282,7 +1276,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1296,7 +1289,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1310,7 +1302,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1324,7 +1315,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1342,7 +1332,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="47">
     <queryTableFields count="46">
       <queryTableField id="1" name="T.GlobalRef" tableColumnId="47"/>
@@ -1397,55 +1387,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" displayName="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" ref="A1:AT26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:AT26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" displayName="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" ref="A1:AT26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:AT26"/>
   <tableColumns count="46">
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="T.GJID" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="T.TransactionDate" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="T.TransactionNo" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="T.Amount" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="T.TaxSelect" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="T.Memo" queryTableFieldId="7" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="T.Approved" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="T.Deleted" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="T.TypeOfBasedOn" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="T.FrequencyValues" queryTableFieldId="11" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="T.CopyStartDate" queryTableFieldId="12" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="T.CopyFinishDate" queryTableFieldId="13" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="T.RepeatedFrom" queryTableFieldId="14" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="T.EditedFlag" queryTableFieldId="15" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="T.msTimeStamp" queryTableFieldId="16" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="T.msUpdateSiteCode" queryTableFieldId="17" dataDxfId="29"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="T.GlobalRef_1" queryTableFieldId="18" dataDxfId="28"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="T.GJDID" queryTableFieldId="19" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="T.GJID_1" queryTableFieldId="20" dataDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="T.AccountName" queryTableFieldId="21" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="T.AccountID" queryTableFieldId="22" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="T.AccountNumber" queryTableFieldId="23" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="T.DebitAmount" queryTableFieldId="24" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="T.DebitAmountInc" queryTableFieldId="25" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="T.CreditAmount" queryTableFieldId="26" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="T.CreditAmountInc" queryTableFieldId="27" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="T.TaxCode" queryTableFieldId="28" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="T.TaxCodeID" queryTableFieldId="29" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="T.TaxRate" queryTableFieldId="30" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="T.TaxAmount" queryTableFieldId="31" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="T.Memo_1" queryTableFieldId="32" dataDxfId="14"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="T.ManCOGSAdjustmentMemo" queryTableFieldId="33" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="T.ClientName" queryTableFieldId="34" dataDxfId="12"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="T.ClientID" queryTableFieldId="35" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="T.ClassName" queryTableFieldId="36" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="T.ClassID" queryTableFieldId="37" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="T.Reconciled" queryTableFieldId="38" dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="T.EditedFlag_1" queryTableFieldId="39" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="T.EmployeeName" queryTableFieldId="40" dataDxfId="6"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="T.msTimeStamp_1" queryTableFieldId="41" dataDxfId="5"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="T.Deleted_1" queryTableFieldId="42" dataDxfId="4"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="T.msUpdateSiteCode_1" queryTableFieldId="43" dataDxfId="3"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="T.EmployeeId" queryTableFieldId="44" dataDxfId="2"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="T.AreaCode" queryTableFieldId="45" dataDxfId="1"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="T.LinesOrder" queryTableFieldId="46" dataDxfId="0"/>
+    <tableColumn id="47" uniqueName="47" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="T.GJID" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" uniqueName="3" name="T.TransactionDate" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" uniqueName="4" name="T.TransactionNo" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" uniqueName="5" name="T.Amount" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" uniqueName="6" name="T.TaxSelect" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="7" uniqueName="7" name="T.Memo" queryTableFieldId="7" dataDxfId="39"/>
+    <tableColumn id="8" uniqueName="8" name="T.Approved" queryTableFieldId="8" dataDxfId="38"/>
+    <tableColumn id="9" uniqueName="9" name="T.Deleted" queryTableFieldId="9" dataDxfId="37"/>
+    <tableColumn id="10" uniqueName="10" name="T.TypeOfBasedOn" queryTableFieldId="10" dataDxfId="36"/>
+    <tableColumn id="11" uniqueName="11" name="T.FrequencyValues" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="12" uniqueName="12" name="T.CopyStartDate" queryTableFieldId="12" dataDxfId="34"/>
+    <tableColumn id="13" uniqueName="13" name="T.CopyFinishDate" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="14" uniqueName="14" name="T.RepeatedFrom" queryTableFieldId="14" dataDxfId="32"/>
+    <tableColumn id="15" uniqueName="15" name="T.EditedFlag" queryTableFieldId="15" dataDxfId="31"/>
+    <tableColumn id="16" uniqueName="16" name="T.msTimeStamp" queryTableFieldId="16" dataDxfId="30"/>
+    <tableColumn id="17" uniqueName="17" name="T.msUpdateSiteCode" queryTableFieldId="17" dataDxfId="29"/>
+    <tableColumn id="18" uniqueName="18" name="T.GlobalRef_1" queryTableFieldId="18" dataDxfId="28"/>
+    <tableColumn id="19" uniqueName="19" name="T.GJDID" queryTableFieldId="19" dataDxfId="27"/>
+    <tableColumn id="20" uniqueName="20" name="T.GJID_1" queryTableFieldId="20" dataDxfId="26"/>
+    <tableColumn id="21" uniqueName="21" name="T.AccountName" queryTableFieldId="21" dataDxfId="25"/>
+    <tableColumn id="22" uniqueName="22" name="T.AccountID" queryTableFieldId="22" dataDxfId="24"/>
+    <tableColumn id="23" uniqueName="23" name="T.AccountNumber" queryTableFieldId="23" dataDxfId="23"/>
+    <tableColumn id="24" uniqueName="24" name="T.DebitAmount" queryTableFieldId="24" dataDxfId="22"/>
+    <tableColumn id="25" uniqueName="25" name="T.DebitAmountInc" queryTableFieldId="25" dataDxfId="21"/>
+    <tableColumn id="26" uniqueName="26" name="T.CreditAmount" queryTableFieldId="26" dataDxfId="20"/>
+    <tableColumn id="27" uniqueName="27" name="T.CreditAmountInc" queryTableFieldId="27" dataDxfId="19"/>
+    <tableColumn id="28" uniqueName="28" name="T.TaxCode" queryTableFieldId="28" dataDxfId="18"/>
+    <tableColumn id="29" uniqueName="29" name="T.TaxCodeID" queryTableFieldId="29" dataDxfId="17"/>
+    <tableColumn id="30" uniqueName="30" name="T.TaxRate" queryTableFieldId="30" dataDxfId="16"/>
+    <tableColumn id="31" uniqueName="31" name="T.TaxAmount" queryTableFieldId="31" dataDxfId="15"/>
+    <tableColumn id="32" uniqueName="32" name="T.Memo_1" queryTableFieldId="32" dataDxfId="14"/>
+    <tableColumn id="33" uniqueName="33" name="T.ManCOGSAdjustmentMemo" queryTableFieldId="33" dataDxfId="13"/>
+    <tableColumn id="34" uniqueName="34" name="T.ClientName" queryTableFieldId="34" dataDxfId="12"/>
+    <tableColumn id="35" uniqueName="35" name="T.ClientID" queryTableFieldId="35" dataDxfId="11"/>
+    <tableColumn id="36" uniqueName="36" name="T.ClassName" queryTableFieldId="36" dataDxfId="10"/>
+    <tableColumn id="37" uniqueName="37" name="T.ClassID" queryTableFieldId="37" dataDxfId="9"/>
+    <tableColumn id="38" uniqueName="38" name="T.Reconciled" queryTableFieldId="38" dataDxfId="8"/>
+    <tableColumn id="39" uniqueName="39" name="T.EditedFlag_1" queryTableFieldId="39" dataDxfId="7"/>
+    <tableColumn id="40" uniqueName="40" name="T.EmployeeName" queryTableFieldId="40" dataDxfId="6"/>
+    <tableColumn id="41" uniqueName="41" name="T.msTimeStamp_1" queryTableFieldId="41" dataDxfId="5"/>
+    <tableColumn id="42" uniqueName="42" name="T.Deleted_1" queryTableFieldId="42" dataDxfId="4"/>
+    <tableColumn id="43" uniqueName="43" name="T.msUpdateSiteCode_1" queryTableFieldId="43" dataDxfId="3"/>
+    <tableColumn id="44" uniqueName="44" name="T.EmployeeId" queryTableFieldId="44" dataDxfId="2"/>
+    <tableColumn id="45" uniqueName="45" name="T.AreaCode" queryTableFieldId="45" dataDxfId="1"/>
+    <tableColumn id="46" uniqueName="46" name="T.LinesOrder" queryTableFieldId="46" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1713,633 +1703,1242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>180</v>
+      <c r="H1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44914</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="3">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
+    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="str">
+        <f>'Raw Data'!$C$2</f>
+        <v>2022-12-19 00:00:00</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>'Raw Data'!$D$2</f>
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>'Raw Data'!$AN$2</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>'Raw Data'!$AJ$2</f>
+        <v>Default</v>
+      </c>
+      <c r="E2" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <f>'Raw Data'!$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>'Raw Data'!$G$2</f>
+        <v>eqweqw</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>44914</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="3">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
+    <row r="3" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
+        <f>'Raw Data'!$C$3</f>
+        <v>2022-12-19 00:00:00</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>'Raw Data'!$D$3</f>
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>'Raw Data'!$AN$3</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>'Raw Data'!$AJ$3</f>
+        <v>Default</v>
+      </c>
+      <c r="E3" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <f>'Raw Data'!$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>'Raw Data'!$G$3</f>
+        <v>sdfsdf</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44909</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="str">
+        <f>'Raw Data'!$C$4</f>
+        <v>2022-12-14 00:00:00</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>'Raw Data'!$D$4</f>
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
+      <c r="C5" s="6" t="str">
+        <f>'Raw Data'!$AN$4</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>'Raw Data'!$AJ$4</f>
+        <v>Default</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <f>'Raw Data'!$I$4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>'Raw Data'!$G$4</f>
+        <v>2345643</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44904</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44816</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
+        <f>'Raw Data'!$C$5</f>
+        <v>2022-12-09 00:00:00</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>'Raw Data'!$D$5</f>
         <v>60</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
+      <c r="C7" s="6" t="str">
+        <f>'Raw Data'!$AN$5</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>'Raw Data'!$AJ$5</f>
+        <v>Default</v>
+      </c>
+      <c r="E7" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="b">
+        <f>'Raw Data'!$I$5</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>'Raw Data'!$G$5</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C6" s="3">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C7" s="3">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="str">
+        <f>'Raw Data'!$C$6</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>'Raw Data'!$D$6</f>
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>'Raw Data'!$AN$6</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>'Raw Data'!$AJ$6</f>
+        <v>Default</v>
+      </c>
+      <c r="E9" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <f>'Raw Data'!$I$6</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>'Raw Data'!$G$6</f>
+        <v>Test</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C8" s="3">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
+    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="str">
+        <f>'Raw Data'!$C$7</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>'Raw Data'!$D$7</f>
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>'Raw Data'!$AN$7</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>'Raw Data'!$AJ$7</f>
+        <v>Default</v>
+      </c>
+      <c r="E10" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="b">
+        <f>'Raw Data'!$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>'Raw Data'!$G$7</f>
+        <v>Test</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C9" s="3">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
+    <row r="11" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="str">
+        <f>'Raw Data'!$C$8</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>'Raw Data'!$D$8</f>
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>'Raw Data'!$AN$8</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>'Raw Data'!$AJ$8</f>
+        <v>Default</v>
+      </c>
+      <c r="E11" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <f>'Raw Data'!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>'Raw Data'!$G$8</f>
+        <v>Test
+23456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C10" s="3">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
+        <f>'Raw Data'!$C$9</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>'Raw Data'!$D$9</f>
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>'Raw Data'!$AN$9</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f>'Raw Data'!$AJ$9</f>
+        <v>Default</v>
+      </c>
+      <c r="E12" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <f>'Raw Data'!$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>'Raw Data'!$G$9</f>
+        <v>Test
+23456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44846</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44905</v>
-      </c>
-      <c r="C11" s="3">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
+    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="str">
+        <f>'Raw Data'!$C$10</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>'Raw Data'!$D$10</f>
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>'Raw Data'!$AN$10</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>'Raw Data'!$AJ$10</f>
+        <v>Default</v>
+      </c>
+      <c r="E13" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <f>'Raw Data'!$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>'Raw Data'!$G$10</f>
+        <v>Test
+23456</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44690</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44809</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="str">
+        <f>'Raw Data'!$C$11</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>'Raw Data'!$D$11</f>
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>'Raw Data'!$AN$11</f>
+        <v>Dene User</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>'Raw Data'!$AJ$11</f>
+        <v>Default</v>
+      </c>
+      <c r="E14" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="b">
+        <f>'Raw Data'!$I$11</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>'Raw Data'!$G$11</f>
+        <v>Test
+23456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="str">
+        <f>'Raw Data'!$C$12</f>
+        <v>2022-05-09 00:00:00</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>'Raw Data'!$D$12</f>
         <v>56</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>700</v>
+      <c r="C16" s="6" t="str">
+        <f>'Raw Data'!$AN$12</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>'Raw Data'!$AJ$12</f>
+        <v>Default</v>
+      </c>
+      <c r="E16" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="b">
+        <f>'Raw Data'!$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>'Raw Data'!$G$12</f>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44690</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44809</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="17" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="str">
+        <f>'Raw Data'!$C$13</f>
+        <v>2022-05-09 00:00:00</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>'Raw Data'!$D$13</f>
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5">
-        <v>700</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
+      <c r="C17" s="6" t="str">
+        <f>'Raw Data'!$AN$13</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>'Raw Data'!$AJ$13</f>
+        <v>Default</v>
+      </c>
+      <c r="E17" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="b">
+        <f>'Raw Data'!$I$13</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>'Raw Data'!$G$13</f>
+        <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44678</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="3">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>500</v>
-      </c>
+    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44678</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="3">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5">
-        <v>550</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
+    <row r="19" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="str">
+        <f>'Raw Data'!$C$14</f>
+        <v>2022-04-27 00:00:00</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>'Raw Data'!$D$14</f>
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>'Raw Data'!$AN$14</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>'Raw Data'!$AJ$14</f>
+        <v>Default</v>
+      </c>
+      <c r="E19" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="b">
+        <f>'Raw Data'!$I$14</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>'Raw Data'!$G$14</f>
+        <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B16" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="str">
+        <f>'Raw Data'!$C$15</f>
+        <v>2022-04-27 00:00:00</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f>'Raw Data'!$D$15</f>
+        <v>54</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>'Raw Data'!$AN$15</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f>'Raw Data'!$AJ$15</f>
+        <v>Default</v>
+      </c>
+      <c r="E20" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="b">
+        <f>'Raw Data'!$I$15</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>'Raw Data'!$G$15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="str">
+        <f>'Raw Data'!$C$16</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f>'Raw Data'!$D$16</f>
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>'Raw Data'!$AN$16</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f>'Raw Data'!$AJ$16</f>
+        <v>Default</v>
+      </c>
+      <c r="E22" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="b">
+        <f>'Raw Data'!$I$16</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f>'Raw Data'!$G$16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="str">
+        <f>'Raw Data'!$C$17</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f>'Raw Data'!$D$17</f>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>'Raw Data'!$AN$17</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f>'Raw Data'!$AJ$17</f>
+        <v>Default</v>
+      </c>
+      <c r="E23" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="b">
+        <f>'Raw Data'!$I$17</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>'Raw Data'!$G$17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="str">
+        <f>'Raw Data'!$C$18</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>'Raw Data'!$D$18</f>
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>'Raw Data'!$AN$18</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f>'Raw Data'!$AJ$18</f>
+        <v>Default</v>
+      </c>
+      <c r="E24" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="b">
+        <f>'Raw Data'!$I$18</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f>'Raw Data'!$G$18</f>
+        <v>This Transaction was wrongly expensed</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="str">
+        <f>'Raw Data'!$C$19</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f>'Raw Data'!$D$19</f>
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>'Raw Data'!$AN$19</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>'Raw Data'!$AJ$19</f>
+        <v>Default</v>
+      </c>
+      <c r="E25" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="b">
+        <f>'Raw Data'!$I$19</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f>'Raw Data'!$G$19</f>
+        <v>This Transaction was wrongly expensed</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="str">
+        <f>'Raw Data'!$C$20</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f>'Raw Data'!$D$20</f>
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>219.78</v>
+      <c r="C26" s="6" t="str">
+        <f>'Raw Data'!$AN$20</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f>'Raw Data'!$AJ$20</f>
+        <v>Default</v>
+      </c>
+      <c r="E26" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="b">
+        <f>'Raw Data'!$I$20</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f>'Raw Data'!$G$20</f>
+        <v>Wrong account expensed</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B17" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="27" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="str">
+        <f>'Raw Data'!$C$21</f>
+        <v>2021-11-10 00:00:00</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f>'Raw Data'!$D$21</f>
         <v>53</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="5">
-        <v>219.78</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
+      <c r="C27" s="6" t="str">
+        <f>'Raw Data'!$AN$21</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>'Raw Data'!$AJ$21</f>
+        <v>Default</v>
+      </c>
+      <c r="E27" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="b">
+        <f>'Raw Data'!$I$21</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f>'Raw Data'!$G$21</f>
+        <v>Wrong account expensed</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B18" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C18" s="3">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>181.82</v>
-      </c>
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B19" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C19" s="3">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="5">
-        <v>181.82</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
+    <row r="29" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="str">
+        <f>'Raw Data'!$C$22</f>
+        <v>2021-11-02 00:00:00</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>'Raw Data'!$D$22</f>
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>'Raw Data'!$AN$22</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f>'Raw Data'!$AJ$22</f>
+        <v>Default</v>
+      </c>
+      <c r="E29" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="b">
+        <f>'Raw Data'!$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>'Raw Data'!$G$22</f>
+        <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B20" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C20" s="3">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>200</v>
+    <row r="30" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="str">
+        <f>'Raw Data'!$C$23</f>
+        <v>2021-11-02 00:00:00</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <f>'Raw Data'!$D$23</f>
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>'Raw Data'!$AN$23</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f>'Raw Data'!$AJ$23</f>
+        <v>Default</v>
+      </c>
+      <c r="E30" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="b">
+        <f>'Raw Data'!$I$23</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f>'Raw Data'!$G$23</f>
+        <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C21" s="3">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5">
-        <v>200</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44502</v>
-      </c>
-      <c r="B22" s="4">
-        <v>44238</v>
-      </c>
-      <c r="C22" s="3">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>500</v>
+    <row r="32" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="str">
+        <f>'Raw Data'!$C$24</f>
+        <v>2021-10-25 00:00:00</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>'Raw Data'!$D$24</f>
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>'Raw Data'!$AN$24</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f>'Raw Data'!$AJ$24</f>
+        <v>Default</v>
+      </c>
+      <c r="E32" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="b">
+        <f>'Raw Data'!$I$24</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f>'Raw Data'!$G$24</f>
+        <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44502</v>
-      </c>
-      <c r="B23" s="4">
-        <v>44238</v>
-      </c>
-      <c r="C23" s="3">
-        <v>43</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="5">
-        <v>500</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
+    <row r="33" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="str">
+        <f>'Raw Data'!$C$25</f>
+        <v>2021-10-25 00:00:00</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>'Raw Data'!$D$25</f>
+        <v>37</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>'Raw Data'!$AN$25</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f>'Raw Data'!$AJ$25</f>
+        <v>Default</v>
+      </c>
+      <c r="E33" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="b">
+        <f>'Raw Data'!$I$25</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f>'Raw Data'!$G$25</f>
+        <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44494</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="3">
+    <row r="34" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="str">
+        <f>'Raw Data'!$C$26</f>
+        <v>2021-10-25 00:00:00</v>
+      </c>
+      <c r="B34" s="6" t="str">
+        <f>'Raw Data'!$D$26</f>
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>500</v>
+      <c r="C34" s="6" t="str">
+        <f>'Raw Data'!$AN$26</f>
+        <v>Sample Sample</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f>'Raw Data'!$AJ$26</f>
+        <v>Default</v>
+      </c>
+      <c r="E34" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="b">
+        <f>'Raw Data'!$I$26</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f>'Raw Data'!$G$26</f>
+        <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44494</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="3">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>600</v>
-      </c>
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7">
+        <f>'Raw Data'!$X$2</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <f>'Raw Data'!$Z$2</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f>'Raw Data'!$AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44494</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="3">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="5">
-        <v>600</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7">
+        <f>SUBTOTAL(9,E2:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <f>SUBTOTAL(9,F2:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <f>SUBTOTAL(9,G2:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
